--- a/ALDL/pins.xlsx
+++ b/ALDL/pins.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Albert\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Albert\Documents\GitHub\STM32\ALDL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="62">
   <si>
     <t>Brakes</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Illum</t>
   </si>
   <si>
-    <t>A6</t>
-  </si>
-  <si>
     <t>PWM</t>
   </si>
   <si>
@@ -164,9 +161,6 @@
     <t>A7</t>
   </si>
   <si>
-    <t>A0</t>
-  </si>
-  <si>
     <t>A1</t>
   </si>
   <si>
@@ -200,18 +194,9 @@
     <t>T3C1</t>
   </si>
   <si>
-    <t>T2C1R</t>
-  </si>
-  <si>
-    <t>T2C2</t>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
-    <t>T1C1</t>
-  </si>
-  <si>
     <t>B5</t>
   </si>
   <si>
@@ -222,13 +207,16 @@
   </si>
   <si>
     <t>B9</t>
+  </si>
+  <si>
+    <t>B3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,6 +229,23 @@
       <b/>
       <sz val="11"/>
       <color theme="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -268,12 +273,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -292,7 +291,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -309,7 +314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -320,26 +325,42 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -366,20 +387,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>473074</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>162488</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>415924</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPr id="4" name="Рисунок 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -398,8 +419,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="733425" y="161925"/>
-          <a:ext cx="10058400" cy="6858563"/>
+          <a:off x="14940491" y="390525"/>
+          <a:ext cx="3625850" cy="4410075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -410,20 +431,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>511176</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>52917</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>203201</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>53480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Рисунок 3"/>
+        <xdr:cNvPr id="2" name="Рисунок 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -442,8 +463,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15840075" y="390525"/>
-          <a:ext cx="3600450" cy="4410075"/>
+          <a:off x="511176" y="243417"/>
+          <a:ext cx="10055225" cy="6858563"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -718,327 +739,318 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="S4:Y26"/>
+  <dimension ref="S4:Y27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="U20" sqref="U20"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="V30" sqref="V30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="19" max="20" width="9.140625" style="1"/>
+    <col min="19" max="19" width="9.140625" style="1"/>
+    <col min="20" max="20" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.28515625" style="12" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="9.140625" style="1"/>
-    <col min="25" max="25" width="9.140625" style="10"/>
+    <col min="25" max="25" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="4" spans="20:24" x14ac:dyDescent="0.25">
-      <c r="T4" t="s">
+    <row r="4" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="U4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="V4" s="4" t="s">
+      <c r="V4" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T5" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="U5" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T6" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="U6" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T7" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="U7" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="V7" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T8" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="U8" s="13" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="20:24" x14ac:dyDescent="0.25">
-      <c r="T5" t="s">
-        <v>1</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="V5" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="20:24" x14ac:dyDescent="0.25">
-      <c r="T6" t="s">
-        <v>2</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="V6" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="20:24" x14ac:dyDescent="0.25">
-      <c r="T7" t="s">
-        <v>6</v>
-      </c>
-      <c r="U7" s="1" t="s">
+      <c r="V8" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T9" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="U9" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T10" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="U10" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T11" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="U11" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="W11" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T12" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="U12" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T13" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="U13" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="V13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="W13" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T14" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="U14" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="V14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="W14" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T15" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="U15" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="V15" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="W15" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="V7" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="20:24" x14ac:dyDescent="0.25">
-      <c r="T8" t="s">
-        <v>15</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="V8" s="1" t="s">
+      <c r="X15" s="9"/>
+      <c r="Y15" s="10"/>
+    </row>
+    <row r="16" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T16" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="U16" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="V16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W16" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T17" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="U17" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W17" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T18" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="U18" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="V18" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T19" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="U19" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T20" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="U20" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T21" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="U21" s="13" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="9" spans="20:24" x14ac:dyDescent="0.25">
-      <c r="T9" t="s">
-        <v>14</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="20:24" x14ac:dyDescent="0.25">
-      <c r="T10" t="s">
-        <v>13</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="20:24" x14ac:dyDescent="0.25">
-      <c r="T11" t="s">
-        <v>16</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="V11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="W11" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="20:24" x14ac:dyDescent="0.25">
-      <c r="T12" t="s">
-        <v>17</v>
-      </c>
-      <c r="U12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="W12" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="20:24" x14ac:dyDescent="0.25">
-      <c r="T13" t="s">
-        <v>23</v>
-      </c>
-      <c r="U13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="V13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="W13" s="2" t="s">
+      <c r="V21" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T22" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="U22" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="V22" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="W22" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="14" spans="20:24" x14ac:dyDescent="0.25">
-      <c r="T14" t="s">
-        <v>24</v>
-      </c>
-      <c r="U14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="V14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="W14" s="2" t="s">
+      <c r="X22" s="6"/>
+    </row>
+    <row r="23" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T23" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="U23" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="V23" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="W23" s="5" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="15" spans="20:24" x14ac:dyDescent="0.25">
-      <c r="T15" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="U15" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="V15" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="W15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="X15" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="20:24" x14ac:dyDescent="0.25">
-      <c r="T16" t="s">
-        <v>28</v>
-      </c>
-      <c r="U16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V16" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="W16" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="20:25" x14ac:dyDescent="0.25">
-      <c r="T17" t="s">
-        <v>29</v>
-      </c>
-      <c r="U17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V17" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="W17" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="20:25" x14ac:dyDescent="0.25">
-      <c r="T18" t="s">
-        <v>32</v>
-      </c>
-      <c r="U18" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="V18" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="20:25" x14ac:dyDescent="0.25">
-      <c r="T19" t="s">
-        <v>30</v>
-      </c>
-      <c r="U19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V19" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="20:25" x14ac:dyDescent="0.25">
-      <c r="T20" t="s">
-        <v>31</v>
-      </c>
-      <c r="U20" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="V20" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="20:25" x14ac:dyDescent="0.25">
-      <c r="T21" t="s">
-        <v>37</v>
-      </c>
-      <c r="U21" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="V21" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="20:25" x14ac:dyDescent="0.25">
-      <c r="T22" t="s">
-        <v>38</v>
-      </c>
-      <c r="U22" s="1" t="s">
+      <c r="X23" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T24" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="U24" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="V22" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="W22" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="X22" s="6"/>
-    </row>
-    <row r="23" spans="20:25" x14ac:dyDescent="0.25">
-      <c r="T23" t="s">
+      <c r="V24" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="W24" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="X24" s="6"/>
+    </row>
+    <row r="25" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T25" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="U23" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="V23" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="W23" s="5" t="s">
+      <c r="U25" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="V25" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="X23" s="5" t="s">
+      <c r="W25"/>
+      <c r="Y25"/>
+    </row>
+    <row r="26" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T26" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="U26" s="13" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="24" spans="20:25" x14ac:dyDescent="0.25">
-      <c r="T24" t="s">
-        <v>42</v>
-      </c>
-      <c r="U24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="V24" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="W24" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="X24" s="6"/>
-    </row>
-    <row r="25" spans="20:25" x14ac:dyDescent="0.25">
-      <c r="T25" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="U25" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="V25" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="W25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="X25" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y25" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="20:25" x14ac:dyDescent="0.25">
-      <c r="T26" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="U26" s="9" t="s">
-        <v>47</v>
-      </c>
       <c r="V26" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="W26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="X26" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y26" s="11" t="s">
-        <v>63</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="W26"/>
+      <c r="Y26"/>
+    </row>
+    <row r="27" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="W27"/>
+      <c r="Y27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ALDL/pins.xlsx
+++ b/ALDL/pins.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20383"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Albert\Documents\GitHub\STM32\ALDL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ORB User\Documents\GitHub\STM32\ALDL\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5BCCA0C-34EC-42FE-B4DB-A23A1FD6F4C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12840" windowHeight="9435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12840" windowHeight="9435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -215,7 +216,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -400,7 +401,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Рисунок 3"/>
+        <xdr:cNvPr id="4" name="Рисунок 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -444,7 +451,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -738,11 +751,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="S4:Y27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="V30" sqref="V30"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="T25" sqref="T25:V26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
